--- a/Excel/xqf131/xqf131CooperativeAntColony2exp5.xlsx
+++ b/Excel/xqf131/xqf131CooperativeAntColony2exp5.xlsx
@@ -458,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.771214854999926</v>
+        <v>0.1798505369997656</v>
       </c>
       <c r="D2" t="n">
-        <v>1556</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.775373223000315</v>
+        <v>0.4018420539996441</v>
       </c>
       <c r="D3" t="n">
-        <v>1548</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.513816235000377</v>
+        <v>0.5974235220000992</v>
       </c>
       <c r="D4" t="n">
-        <v>1542</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>13.55023760100039</v>
+        <v>0.9086094770000273</v>
       </c>
       <c r="D5" t="n">
-        <v>1542</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>16.23822979600027</v>
+        <v>1.174691018999511</v>
       </c>
       <c r="D6" t="n">
-        <v>1517</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>19.22255570600009</v>
+        <v>1.496326790999774</v>
       </c>
       <c r="D7" t="n">
-        <v>1517</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>22.60308896100014</v>
+        <v>1.802596629999243</v>
       </c>
       <c r="D8" t="n">
-        <v>1517</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>26.07020251499989</v>
+        <v>2.132221005999781</v>
       </c>
       <c r="D9" t="n">
-        <v>1517</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>28.38149102899979</v>
+        <v>2.465889667999363</v>
       </c>
       <c r="D10" t="n">
-        <v>1517</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11">
@@ -584,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>31.00580386299998</v>
+        <v>2.802475613999377</v>
       </c>
       <c r="D11" t="n">
-        <v>1517</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9145409759999</v>
+        <v>3.006005811998875</v>
       </c>
       <c r="D12" t="n">
-        <v>1496</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>37.40993116199979</v>
+        <v>3.233136364999154</v>
       </c>
       <c r="D13" t="n">
-        <v>1496</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>40.35277280499986</v>
+        <v>3.470798066999123</v>
       </c>
       <c r="D14" t="n">
-        <v>1496</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>43.78019571699997</v>
+        <v>3.711645184999725</v>
       </c>
       <c r="D15" t="n">
-        <v>1496</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>46.54563581799994</v>
+        <v>3.97234685300009</v>
       </c>
       <c r="D16" t="n">
-        <v>1496</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>49.79213790899985</v>
+        <v>4.304002238999601</v>
       </c>
       <c r="D17" t="n">
-        <v>1496</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18">
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>54.22885213599966</v>
+        <v>4.516752316999373</v>
       </c>
       <c r="D18" t="n">
-        <v>1496</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19">
@@ -696,10 +696,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>57.91776983699992</v>
+        <v>4.74274043999867</v>
       </c>
       <c r="D19" t="n">
-        <v>1496</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>62.49339953899971</v>
+        <v>5.020769195998582</v>
       </c>
       <c r="D20" t="n">
-        <v>1496</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21">
@@ -724,10 +724,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>65.74213231099975</v>
+        <v>5.284911763998934</v>
       </c>
       <c r="D21" t="n">
-        <v>1496</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22">
@@ -738,10 +738,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>69.70901457399987</v>
+        <v>5.551971603998936</v>
       </c>
       <c r="D22" t="n">
-        <v>1496</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23">
@@ -752,10 +752,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>73.20849335599996</v>
+        <v>5.824373261998517</v>
       </c>
       <c r="D23" t="n">
-        <v>1496</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24">
@@ -766,10 +766,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>76.94502421300012</v>
+        <v>6.114963310998064</v>
       </c>
       <c r="D24" t="n">
-        <v>1496</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25">
@@ -780,10 +780,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>79.64040985700012</v>
+        <v>6.313326925997899</v>
       </c>
       <c r="D25" t="n">
-        <v>1496</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26">
@@ -794,10 +794,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>82.79092732900017</v>
+        <v>6.49250285099788</v>
       </c>
       <c r="D26" t="n">
-        <v>1496</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27">
@@ -808,10 +808,10 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>85.28736625400052</v>
+        <v>6.719538466998529</v>
       </c>
       <c r="D27" t="n">
-        <v>1496</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28">
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>88.71856089000039</v>
+        <v>6.974910641998576</v>
       </c>
       <c r="D28" t="n">
-        <v>1496</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29">
@@ -836,10 +836,10 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>91.73336808500017</v>
+        <v>7.225717244999032</v>
       </c>
       <c r="D29" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30">
@@ -850,10 +850,10 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>94.97433753300038</v>
+        <v>7.520947241998329</v>
       </c>
       <c r="D30" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>98.63528858500058</v>
+        <v>7.796947979998549</v>
       </c>
       <c r="D31" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32">
@@ -878,10 +878,10 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>102.403702560001</v>
+        <v>8.062669759998244</v>
       </c>
       <c r="D32" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33">
@@ -892,10 +892,10 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>105.1392739520006</v>
+        <v>8.30065488299897</v>
       </c>
       <c r="D33" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34">
@@ -906,10 +906,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>108.3631636290006</v>
+        <v>8.617872576998707</v>
       </c>
       <c r="D34" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35">
@@ -920,10 +920,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>111.5910373600009</v>
+        <v>8.816197755998473</v>
       </c>
       <c r="D35" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36">
@@ -934,10 +934,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>115.2299208650011</v>
+        <v>9.082560378998096</v>
       </c>
       <c r="D36" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="37">
@@ -948,10 +948,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>118.9259348940009</v>
+        <v>9.391861274998519</v>
       </c>
       <c r="D37" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38">
@@ -962,10 +962,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>121.2136846990011</v>
+        <v>9.705854257998908</v>
       </c>
       <c r="D38" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39">
@@ -976,10 +976,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>124.9712995500013</v>
+        <v>10.01113908699881</v>
       </c>
       <c r="D39" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40">
@@ -990,10 +990,10 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>128.3057111210014</v>
+        <v>10.27440617899902</v>
       </c>
       <c r="D40" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41">
@@ -1004,10 +1004,10 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>131.9765124640012</v>
+        <v>10.46955173999959</v>
       </c>
       <c r="D41" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42">
@@ -1018,10 +1018,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>134.339999658001</v>
+        <v>10.71908211199934</v>
       </c>
       <c r="D42" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43">
@@ -1032,10 +1032,10 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>136.9034339000009</v>
+        <v>10.96844445599891</v>
       </c>
       <c r="D43" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44">
@@ -1046,10 +1046,10 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>139.4167979950012</v>
+        <v>11.2273802689997</v>
       </c>
       <c r="D44" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45">
@@ -1060,10 +1060,10 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>141.7062943940009</v>
+        <v>11.55723577400022</v>
       </c>
       <c r="D45" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46">
@@ -1074,10 +1074,10 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>144.2021443120011</v>
+        <v>11.82985531800023</v>
       </c>
       <c r="D46" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47">
@@ -1088,10 +1088,10 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>146.9780690680013</v>
+        <v>12.09942026799945</v>
       </c>
       <c r="D47" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48">
@@ -1102,10 +1102,10 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>149.9562124740014</v>
+        <v>12.44275327099876</v>
       </c>
       <c r="D48" t="n">
-        <v>1496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="49">
@@ -1116,10 +1116,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>153.5707654490016</v>
+        <v>12.76860389999911</v>
       </c>
       <c r="D49" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="50">
@@ -1130,10 +1130,10 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>157.1761179290015</v>
+        <v>13.01112600399938</v>
       </c>
       <c r="D50" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51">
@@ -1144,10 +1144,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>161.7142273950012</v>
+        <v>13.28292135099946</v>
       </c>
       <c r="D51" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="52">
@@ -1158,10 +1158,10 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>166.1254209070012</v>
+        <v>13.57296491899979</v>
       </c>
       <c r="D52" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="53">
@@ -1172,10 +1172,10 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>170.2354397140011</v>
+        <v>13.7525873809991</v>
       </c>
       <c r="D53" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="54">
@@ -1186,10 +1186,10 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>174.2846624360009</v>
+        <v>14.04003955999906</v>
       </c>
       <c r="D54" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55">
@@ -1200,10 +1200,10 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>178.1101864500006</v>
+        <v>14.29699435899965</v>
       </c>
       <c r="D55" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="56">
@@ -1214,10 +1214,10 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>180.1683909070002</v>
+        <v>14.51930806000018</v>
       </c>
       <c r="D56" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="57">
@@ -1228,10 +1228,10 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>183.526193786</v>
+        <v>14.75062200900084</v>
       </c>
       <c r="D57" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58">
@@ -1242,10 +1242,10 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>187.4820142809999</v>
+        <v>14.99838936000106</v>
       </c>
       <c r="D58" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="59">
@@ -1256,10 +1256,10 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>190.7039157869999</v>
+        <v>15.25126275000093</v>
       </c>
       <c r="D59" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60">
@@ -1270,10 +1270,10 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>194.5794897390001</v>
+        <v>15.50130219200128</v>
       </c>
       <c r="D60" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="61">
@@ -1284,10 +1284,10 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>197.2754398020002</v>
+        <v>15.78672978300074</v>
       </c>
       <c r="D61" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62">
@@ -1298,10 +1298,10 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>199.5312811620001</v>
+        <v>15.9964266700008</v>
       </c>
       <c r="D62" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63">
@@ -1312,10 +1312,10 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>202.5524747859999</v>
+        <v>16.18002704800074</v>
       </c>
       <c r="D63" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64">
@@ -1326,10 +1326,10 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>204.8895496539999</v>
+        <v>16.43630145300085</v>
       </c>
       <c r="D64" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65">
@@ -1340,10 +1340,10 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>207.6673810410002</v>
+        <v>16.71535910700095</v>
       </c>
       <c r="D65" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66">
@@ -1354,10 +1354,10 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>209.9255374020004</v>
+        <v>16.98724568100079</v>
       </c>
       <c r="D66" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67">
@@ -1368,10 +1368,10 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>212.6315167910002</v>
+        <v>17.27563551800085</v>
       </c>
       <c r="D67" t="n">
-        <v>1496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68">
@@ -1382,10 +1382,10 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>215.5908969850002</v>
+        <v>17.58168926900089</v>
       </c>
       <c r="D68" t="n">
-        <v>1496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69">
@@ -1396,10 +1396,10 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>219.4938473290003</v>
+        <v>17.86913033700057</v>
       </c>
       <c r="D69" t="n">
-        <v>1496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70">
@@ -1410,10 +1410,10 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>222.9008900750005</v>
+        <v>18.15067357300086</v>
       </c>
       <c r="D70" t="n">
-        <v>1496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="71">
@@ -1424,10 +1424,10 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>225.8757651070005</v>
+        <v>18.5505159960012</v>
       </c>
       <c r="D71" t="n">
-        <v>1496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="72">
@@ -1438,10 +1438,10 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>230.4216945290004</v>
+        <v>18.8209699650015</v>
       </c>
       <c r="D72" t="n">
-        <v>1496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73">
@@ -1452,10 +1452,10 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>233.9879545530002</v>
+        <v>18.99056438200205</v>
       </c>
       <c r="D73" t="n">
-        <v>1496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74">
@@ -1466,10 +1466,10 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>237.3219923280003</v>
+        <v>19.1714029040013</v>
       </c>
       <c r="D74" t="n">
-        <v>1496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75">
@@ -1480,10 +1480,10 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>241.6661447790007</v>
+        <v>19.39694684300139</v>
       </c>
       <c r="D75" t="n">
-        <v>1496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76">
@@ -1494,10 +1494,10 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>245.4881032710009</v>
+        <v>19.61426449200189</v>
       </c>
       <c r="D76" t="n">
-        <v>1496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77">
@@ -1508,10 +1508,10 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>249.0047203200006</v>
+        <v>19.87445778300207</v>
       </c>
       <c r="D77" t="n">
-        <v>1496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="78">
@@ -1522,10 +1522,10 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>253.0308965860004</v>
+        <v>20.09893991100216</v>
       </c>
       <c r="D78" t="n">
-        <v>1496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="79">
@@ -1536,10 +1536,10 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>256.7817493460002</v>
+        <v>20.3510289950018</v>
       </c>
       <c r="D79" t="n">
-        <v>1496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80">
@@ -1550,10 +1550,10 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>261.0504036940001</v>
+        <v>20.62228603800122</v>
       </c>
       <c r="D80" t="n">
-        <v>1496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="81">
@@ -1564,10 +1564,10 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>264.5278368310001</v>
+        <v>20.91607001400098</v>
       </c>
       <c r="D81" t="n">
-        <v>1496</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82">
@@ -1578,10 +1578,10 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>267.5695755400002</v>
+        <v>21.17175625800155</v>
       </c>
       <c r="D82" t="n">
-        <v>1496</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83">
@@ -1592,10 +1592,10 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>269.904697771</v>
+        <v>21.44237378600155</v>
       </c>
       <c r="D83" t="n">
-        <v>1496</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84">
@@ -1606,10 +1606,10 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>271.9215838069999</v>
+        <v>21.75190678300078</v>
       </c>
       <c r="D84" t="n">
-        <v>1496</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85">
@@ -1620,10 +1620,10 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>274.880347243</v>
+        <v>22.10625775600056</v>
       </c>
       <c r="D85" t="n">
-        <v>1496</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86">
@@ -1634,10 +1634,10 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>278.6464787729997</v>
+        <v>22.47108856700015</v>
       </c>
       <c r="D86" t="n">
-        <v>1496</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87">
@@ -1648,10 +1648,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>281.783590044</v>
+        <v>22.82812679499966</v>
       </c>
       <c r="D87" t="n">
-        <v>1496</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88">
@@ -1662,10 +1662,10 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>284.9748848039999</v>
+        <v>23.15533561899974</v>
       </c>
       <c r="D88" t="n">
-        <v>1494</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89">
@@ -1676,10 +1676,10 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>287.94266741</v>
+        <v>23.5135467479995</v>
       </c>
       <c r="D89" t="n">
-        <v>1494</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90">
@@ -1690,10 +1690,10 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>290.0070441579996</v>
+        <v>23.73665133499981</v>
       </c>
       <c r="D90" t="n">
-        <v>1494</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91">
@@ -1704,10 +1704,10 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>292.9506955729998</v>
+        <v>23.97235796400037</v>
       </c>
       <c r="D91" t="n">
-        <v>1490</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92">
@@ -1718,10 +1718,10 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>296.1406557459995</v>
+        <v>24.15545324399955</v>
       </c>
       <c r="D92" t="n">
-        <v>1490</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93">
@@ -1732,10 +1732,10 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>299.3558605029993</v>
+        <v>24.38757638700008</v>
       </c>
       <c r="D93" t="n">
-        <v>1490</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94">
@@ -1746,10 +1746,10 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>303.3135310089992</v>
+        <v>24.64792879400011</v>
       </c>
       <c r="D94" t="n">
-        <v>1489</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95">
@@ -1760,10 +1760,10 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>307.0656618549992</v>
+        <v>24.93498958300006</v>
       </c>
       <c r="D95" t="n">
-        <v>1489</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96">
@@ -1774,10 +1774,10 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>310.9559211449991</v>
+        <v>25.26675414500005</v>
       </c>
       <c r="D96" t="n">
-        <v>1489</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97">
@@ -1788,10 +1788,10 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>314.5045310649994</v>
+        <v>25.57035512000039</v>
       </c>
       <c r="D97" t="n">
-        <v>1489</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98">
@@ -1802,10 +1802,10 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>318.4039267999997</v>
+        <v>25.89089785100077</v>
       </c>
       <c r="D98" t="n">
-        <v>1489</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99">
@@ -1816,10 +1816,10 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>321.8714831009997</v>
+        <v>26.21035970700086</v>
       </c>
       <c r="D99" t="n">
-        <v>1489</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100">
@@ -1830,10 +1830,10 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>325.8418655569994</v>
+        <v>26.51001250500121</v>
       </c>
       <c r="D100" t="n">
-        <v>1489</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101">
@@ -1844,10 +1844,10 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>330.3265472789994</v>
+        <v>26.78153000300063</v>
       </c>
       <c r="D101" t="n">
-        <v>1489</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
